--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.0823185220859</v>
+        <v>15.6308825</v>
       </c>
       <c r="H2">
-        <v>15.0823185220859</v>
+        <v>31.261765</v>
       </c>
       <c r="I2">
-        <v>0.08800719045314888</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J2">
-        <v>0.08800719045314888</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N2">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q2">
-        <v>36.09570389826308</v>
+        <v>11.2026378568675</v>
       </c>
       <c r="R2">
-        <v>36.09570389826308</v>
+        <v>67.21582714120501</v>
       </c>
       <c r="S2">
-        <v>0.08800719045314888</v>
+        <v>0.01834987157322162</v>
       </c>
       <c r="T2">
-        <v>0.08800719045314888</v>
+        <v>0.01284275857130207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.5694593948792</v>
+        <v>15.6308825</v>
       </c>
       <c r="H3">
-        <v>21.5694593948792</v>
+        <v>31.261765</v>
       </c>
       <c r="I3">
-        <v>0.1258604582681935</v>
+        <v>0.08061597743527853</v>
       </c>
       <c r="J3">
-        <v>0.1258604582681935</v>
+        <v>0.05642173194834236</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N3">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q3">
-        <v>51.62103017669806</v>
+        <v>38.01359763999333</v>
       </c>
       <c r="R3">
-        <v>51.62103017669806</v>
+        <v>228.08158583996</v>
       </c>
       <c r="S3">
-        <v>0.1258604582681935</v>
+        <v>0.06226610586205691</v>
       </c>
       <c r="T3">
-        <v>0.1258604582681935</v>
+        <v>0.04357897337704029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.1566465844127</v>
+        <v>25.268178</v>
       </c>
       <c r="H4">
-        <v>31.1566465844127</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I4">
-        <v>0.1818028790348499</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J4">
-        <v>0.1818028790348499</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N4">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q4">
-        <v>74.56553101745888</v>
+        <v>18.109677904422</v>
       </c>
       <c r="R4">
-        <v>74.56553101745888</v>
+        <v>162.987101139798</v>
       </c>
       <c r="S4">
-        <v>0.1818028790348499</v>
+        <v>0.02966357281422235</v>
       </c>
       <c r="T4">
-        <v>0.1818028790348499</v>
+        <v>0.0311415343558516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>74.761731568435</v>
+        <v>25.268178</v>
       </c>
       <c r="H5">
-        <v>74.761731568435</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I5">
-        <v>0.436243932861888</v>
+        <v>0.130320144590595</v>
       </c>
       <c r="J5">
-        <v>0.436243932861888</v>
+        <v>0.1368132316846795</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N5">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q5">
-        <v>178.9232419182751</v>
+        <v>61.45106340526399</v>
       </c>
       <c r="R5">
-        <v>178.9232419182751</v>
+        <v>553.0595706473759</v>
       </c>
       <c r="S5">
-        <v>0.436243932861888</v>
+        <v>0.1006565717763726</v>
       </c>
       <c r="T5">
-        <v>0.436243932861888</v>
+        <v>0.1056716973288279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6140412473364</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H6">
-        <v>17.6140412473364</v>
+        <v>116.998324</v>
       </c>
       <c r="I6">
-        <v>0.1027801050902063</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J6">
-        <v>0.1027801050902063</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N6">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q6">
-        <v>42.15474009414546</v>
+        <v>27.95086060415867</v>
       </c>
       <c r="R6">
-        <v>42.15474009414546</v>
+        <v>251.557745437428</v>
       </c>
       <c r="S6">
-        <v>0.1027801050902063</v>
+        <v>0.04578338682374828</v>
       </c>
       <c r="T6">
-        <v>0.1027801050902063</v>
+        <v>0.04806450398366748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1917828093276</v>
+        <v>38.99944133333333</v>
       </c>
       <c r="H7">
-        <v>11.1917828093276</v>
+        <v>116.998324</v>
       </c>
       <c r="I7">
-        <v>0.06530543429171333</v>
+        <v>0.2011388725183283</v>
       </c>
       <c r="J7">
-        <v>0.06530543429171333</v>
+        <v>0.2111604407215431</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N7">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q7">
-        <v>26.78469346656457</v>
+        <v>94.84487334799287</v>
       </c>
       <c r="R7">
-        <v>26.78469346656457</v>
+        <v>853.603860131936</v>
       </c>
       <c r="S7">
-        <v>0.06530543429171333</v>
+        <v>0.15535548569458</v>
       </c>
       <c r="T7">
-        <v>0.06530543429171333</v>
+        <v>0.1630959367378756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>78.37889633333333</v>
+      </c>
+      <c r="H8">
+        <v>235.136689</v>
+      </c>
+      <c r="I8">
+        <v>0.4042376582518635</v>
+      </c>
+      <c r="J8">
+        <v>0.4243784456181134</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.150097</v>
+      </c>
+      <c r="O8">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P8">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q8">
+        <v>56.17407662320367</v>
+      </c>
+      <c r="R8">
+        <v>505.566689608833</v>
+      </c>
+      <c r="S8">
+        <v>0.09201289062006048</v>
+      </c>
+      <c r="T8">
+        <v>0.09659735232743061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>78.37889633333333</v>
+      </c>
+      <c r="H9">
+        <v>235.136689</v>
+      </c>
+      <c r="I9">
+        <v>0.4042376582518635</v>
+      </c>
+      <c r="J9">
+        <v>0.4243784456181134</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.295864</v>
+      </c>
+      <c r="O9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q9">
+        <v>190.6139227060329</v>
+      </c>
+      <c r="R9">
+        <v>1715.525304354296</v>
+      </c>
+      <c r="S9">
+        <v>0.3122247676318031</v>
+      </c>
+      <c r="T9">
+        <v>0.3277810932906828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.64038533333333</v>
+      </c>
+      <c r="H10">
+        <v>70.921156</v>
+      </c>
+      <c r="I10">
+        <v>0.1219248350560686</v>
+      </c>
+      <c r="J10">
+        <v>0.1279996332036458</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.150097</v>
+      </c>
+      <c r="O10">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P10">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q10">
+        <v>16.94304052801467</v>
+      </c>
+      <c r="R10">
+        <v>152.487364752132</v>
+      </c>
+      <c r="S10">
+        <v>0.02775262591911484</v>
+      </c>
+      <c r="T10">
+        <v>0.0291353762049472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.64038533333333</v>
+      </c>
+      <c r="H11">
+        <v>70.921156</v>
+      </c>
+      <c r="I11">
+        <v>0.1219248350560686</v>
+      </c>
+      <c r="J11">
+        <v>0.1279996332036458</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.295864</v>
+      </c>
+      <c r="O11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q11">
+        <v>57.49234543319821</v>
+      </c>
+      <c r="R11">
+        <v>517.4311088987839</v>
+      </c>
+      <c r="S11">
+        <v>0.09417220913695376</v>
+      </c>
+      <c r="T11">
+        <v>0.09886425699869859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.9753255</v>
+      </c>
+      <c r="H12">
+        <v>23.950651</v>
+      </c>
+      <c r="I12">
+        <v>0.06176251214786597</v>
+      </c>
+      <c r="J12">
+        <v>0.04322651682367576</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.150097</v>
+      </c>
+      <c r="O12">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P12">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q12">
+        <v>8.582703810524501</v>
+      </c>
+      <c r="R12">
+        <v>51.496222863147</v>
+      </c>
+      <c r="S12">
+        <v>0.01405843112009357</v>
+      </c>
+      <c r="T12">
+        <v>0.009839253427262168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.9753255</v>
+      </c>
+      <c r="H13">
+        <v>23.950651</v>
+      </c>
+      <c r="I13">
+        <v>0.06176251214786597</v>
+      </c>
+      <c r="J13">
+        <v>0.04322651682367576</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.295864</v>
+      </c>
+      <c r="O13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q13">
+        <v>29.12344873457733</v>
+      </c>
+      <c r="R13">
+        <v>174.740692407464</v>
+      </c>
+      <c r="S13">
+        <v>0.0477040810277724</v>
+      </c>
+      <c r="T13">
+        <v>0.03338726339641359</v>
       </c>
     </row>
   </sheetData>
